--- a/items_data/claires.xlsx
+++ b/items_data/claires.xlsx
@@ -460,15 +460,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A2:G20"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="2:26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.52" customWidth="1" style="3" min="1" max="3"/>
+    <col width="51.42" customWidth="1" style="3" min="1" max="1"/>
+    <col width="69.33" customWidth="1" style="3" min="2" max="2"/>
+    <col width="11.52" customWidth="1" style="3" min="3" max="3"/>
     <col width="20.42" customWidth="1" style="3" min="4" max="4"/>
     <col width="11.52" customWidth="1" style="3" min="5" max="1025"/>
   </cols>
@@ -481,31 +483,46 @@
       </c>
       <c r="B1" s="5" t="inlineStr">
         <is>
+          <t>Short Name</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
           <t>Styles</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Img path</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Short URL</t>
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="12.8" customHeight="1" s="4">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 12" Squish-Doos Plush Toy - Styles May Vary</t>
@@ -513,31 +530,46 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Squish</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>12"</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>https://www.claires.com/us/squishmallows-12%22-squish-doos-plush-toy---styles-may-vary-154925.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>81598_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="4">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>©Disney Squishmallows™ 5'' Mickey Mouse Plush Toy</t>
@@ -545,31 +577,46 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve"> Mickey Mouse Plush Toy</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
+          <t>5''</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
           <t>https://www.claires.com/us/disney-squishmallows-5-mickey-mouse-plush-toy-266658.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=2</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>80935_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ Squishville Pack - Styles May Vary</t>
@@ -577,31 +624,46 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">Squishville Pack </t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>16.99</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
           <t>https://www.claires.com/us/squishmallows-squishville-pack---styles-may-vary-163827.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=3</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>98711_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="4">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 5" Puppy Dog Plush Toy - Coral</t>
@@ -609,31 +671,46 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">Puppy Dog Plush Toy </t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
+          <t>5"</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
           <t>https://www.claires.com/us/squishmallows-5%22-puppy-dog-plush-toy---coral-265461.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=4</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>45271_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>©Disney Squishmallows™ 5'' Minnie Mouse Plush Toy</t>
@@ -641,31 +718,46 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve"> Minnie Mouse Plush Toy</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
+          <t>5''</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
           <t>https://www.claires.com/us/disney-squishmallows-5-minnie-mouse-plush-toy-266657.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=5</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>80863_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="4">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ Happy Rainbow Plush Toy</t>
@@ -673,31 +765,46 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Happy Rainbow Plush Toy</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
           <t>https://www.claires.com/us/squishmallows-happy-rainbow-plush-toy-264751.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=6</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>18591_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="4">
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 12" Claire's Unicorn Plush Toy</t>
@@ -705,31 +812,46 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Claire's Unicorn Plush Toy</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
+          <t>12"</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
           <t>https://www.claires.com/us/squishmallows-12%22-claires-unicorn-plush-toy-254505.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=7</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>53101_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="4">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 8'' Hero Dog Plush Toy</t>
@@ -737,31 +859,46 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve"> Hero Dog Plush Toy</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>16.99</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
+          <t>8''</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
           <t>https://www.claires.com/us/squishmallows-8-hero-dog-plush-toy-266479.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=8</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>69142_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="4">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 12" Puppy Dog Plush Toy - Coral</t>
@@ -769,31 +906,46 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">Puppy Dog Plush Toy </t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
+          <t>12"</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
           <t>https://www.claires.com/us/squishmallows-12%22-puppy-dog-plush-toy---coral-138342.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=9</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>45303_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="4">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 12" Koala Plush Toy</t>
@@ -801,31 +953,46 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Koala Plush Toy</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
+          <t>12"</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
           <t>https://www.claires.com/us/squishmallows-12%22-koala-plush-toy-149212.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=10</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>69204_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="4">
       <c r="A12" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 5" Puppy Dog Plush Toy - Aqua</t>
@@ -833,31 +1000,46 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">Puppy Dog Plush Toy </t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
+          <t>5"</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
           <t>https://www.claires.com/us/squishmallows-5%22-puppy-dog-plush-toy---aqua-265976.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=11</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>55231_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="4">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 5" Dalmatian Plush Toy</t>
@@ -865,31 +1047,46 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Dalmatian Plush Toy</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-dalmatian-plush-toy-264750.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=12</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-5%22-dalmatian-plush-toy-264750.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=13</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
           <t>18403_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="4">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 5" Claire's Cat Plush Toy - Mint</t>
@@ -897,31 +1094,46 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">Claire's Cat Plush Toy </t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-claires-cat-plush-toy---mint-257438.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=13</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-5%22-claires-cat-plush-toy---mint-257438.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=14</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
           <t>97438_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="4">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 12" Claire's Cat Plush Toy - Mint</t>
@@ -929,31 +1141,46 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">Claire's Cat Plush Toy </t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-claires-cat-plush-toy---mint-257439.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=14</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-12%22-claires-cat-plush-toy---mint-257439.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=15</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
           <t>97444_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="4">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 5" Koala Plush Toy</t>
@@ -961,31 +1188,46 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Koala Plush Toy</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-koala-plush-toy-266476.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=15</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-5%22-koala-plush-toy-266476.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=16</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
           <t>69191_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 12" Dalmatian Plush Toy</t>
@@ -993,31 +1235,46 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Dalmatian Plush Toy</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-dalmatian-plush-toy-125971.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=16</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-12%22-dalmatian-plush-toy-125971.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=17</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
           <t>18420_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="4">
       <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Squishmallows™ 12" Puppy Dog Plush Toy - Aqua</t>
@@ -1025,249 +1282,369 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">Puppy Dog Plush Toy </t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-puppy-dog-plush-toy---aqua-265977.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=17</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-12%22-puppy-dog-plush-toy---aqua-265977.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=18</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
           <t>55309_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="4">
       <c r="A19" s="3" t="inlineStr">
         <is>
+          <t>Sanrio® Hello Kitty® And Friends Squishmallows™ Pineapple 8'' Plush Toy</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Pineapple 8'' Plush Toy</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>8''</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-squishmallows-pineapple-8-plush-toy-275278.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=19</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>20494_1.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="12.8" customHeight="1" s="4">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Sanrio® Hello Kitty® And Friends Tuxedo Sam® Squishmallows™ 8'' Plush Toy</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Plush Toy</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>8''</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-tuxedo-sam-squishmallows-8-plush-toy-168875.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=20</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>20459_1.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="12.8" customHeight="1" s="4">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Sanrio® Hello Kitty® And Friends Tuxedo Sam® Sundae Squishmallows™ 8'' Plush Toy</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Plush Toy</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>8''</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-tuxedo-sam-sundae-squishmallows-8-plush-toy-127028.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=21</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>20476_1.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="12.8" customHeight="1" s="4">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Sanrio® Hello Kitty® And Friends Squishmallows™ 8'' Plush Toy</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Plush Toy</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>8''</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-squishmallows-8-plush-toy-127000.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=23</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>20433_1.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="12.8" customHeight="1" s="4">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows™ 12" Avocado Plush Toy</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Avocado Plush Toy</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>12"</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-12%22-avocado-plush-toy-126032.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=24</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>18529_1.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="12.8" customHeight="1" s="4">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
           <t>Squishmallows™ 5" Claire's Unicorn Plush Toy</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-claires-unicorn-plush-toy-140176.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=18</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Claire's Unicorn Plush Toy</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>5"</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-5%22-claires-unicorn-plush-toy-140176.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=25</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
         <is>
           <t>49834_1.jpg.jpg</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallows™ 12" Avocado Plush Toy</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-avocado-plush-toy-126032.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=19</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>18529_1.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallows™ 5" Dog Plush Toy - Styles May Vary</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-dog-plush-toy---styles-may-vary-261294.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=12</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>14022_1.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>Sanrio® Hello Kitty® And Friends Squishmallows™ Pineapple 8'' Plush Toy</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-squishmallows-pineapple-8-plush-toy-275278.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=21</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>20494_1.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Sanrio® Hello Kitty® And Friends Tuxedo Sam® Sundae Squishmallows™ 8'' Plush Toy</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-tuxedo-sam-sundae-squishmallows-8-plush-toy-127028.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=22</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>20476_1.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Sanrio® Hello Kitty® And Friends Tuxedo Sam® Squishmallows™ 8'' Plush Toy</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-tuxedo-sam-squishmallows-8-plush-toy-168875.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=23</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>20459_1.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>Claire's</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="12.8" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Sanrio® Hello Kitty® And Friends Squishmallows™ 8'' Plush Toy</t>
+          <t>Squishmallows™ 12" Fantasy Squad Plush Toy - Styles May Vary</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">Fantasy Squad Plush Toy </t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-squishmallows-8-plush-toy-127000.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=24</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>20433_1.jpg.jpg</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-12%22-fantasy-squad-plush-toy---styles-may-vary-140293.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=10</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>50092_1.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
         <is>
           <t>Claire's</t>
         </is>
@@ -1276,30 +1653,186 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Sanrio® Hello Kitty® And Friends My Melody® Squishmallows™ 8'' Plush Toy</t>
+          <t>Squishmallows™ 5" Cactus Plush Toy - Styles May Vary</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">Cactus Plush Toy </t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-my-melody-squishmallows-8-plush-toy-127014.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=25</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>20457_1.jpg.jpg</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-5%22-cactus-plush-toy---styles-may-vary-268844.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=24</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>86003_1.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows™ 8'' Astronaut Dog Plush Toy</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Astronaut Dog Plush Toy</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>8''</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-8-astronaut-dog-plush-toy-268838.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=25</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>86044_1.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows™ 12'' Cactus Plush Toy</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cactus Plush Toy</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>12''</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-12-cactus-plush-toy-157225.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=27</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>86084_1.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>Claire's</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows™ 12''' Sealife Plush Toy - Styles May Vary</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">' Sealife Plush Toy </t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>12'''</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>https://www.claires.com/us/squishmallows-12-sealife-plush-toy---styles-may-vary-271140.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=28</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>54030_1.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
         <is>
           <t>Claire's</t>
         </is>

--- a/items_data/claires.xlsx
+++ b/items_data/claires.xlsx
@@ -619,22 +619,22 @@
     <row r="4" ht="12.8" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ Squishville Pack - Styles May Vary</t>
+          <t>Squishmallows™ 5" Puppy Dog Plush Toy - Coral</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Squishville Pack </t>
+          <t xml:space="preserve">Puppy Dog Plush Toy </t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>16.99</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-squishville-pack---styles-may-vary-163827.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=3</t>
+          <t>https://www.claires.com/us/squishmallows-5%22-puppy-dog-plush-toy---coral-265461.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=4</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>98711_1.jpg.jpg</t>
+          <t>45271_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -666,22 +666,22 @@
     <row r="5" ht="12.8" customHeight="1" s="4">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 5" Puppy Dog Plush Toy - Coral</t>
+          <t>©Disney Squishmallows™ 5'' Minnie Mouse Plush Toy</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Puppy Dog Plush Toy </t>
+          <t xml:space="preserve"> Minnie Mouse Plush Toy</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>5''</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-puppy-dog-plush-toy---coral-265461.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=4</t>
+          <t>https://www.claires.com/us/disney-squishmallows-5-minnie-mouse-plush-toy-266657.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=5</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>45271_1.jpg.jpg</t>
+          <t>80863_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -713,22 +713,22 @@
     <row r="6" ht="12.8" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>©Disney Squishmallows™ 5'' Minnie Mouse Plush Toy</t>
+          <t>Squishmallows™ Happy Rainbow Plush Toy</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minnie Mouse Plush Toy</t>
+          <t>Happy Rainbow Plush Toy</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>5''</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/disney-squishmallows-5-minnie-mouse-plush-toy-266657.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=5</t>
+          <t>https://www.claires.com/us/squishmallows-happy-rainbow-plush-toy-264751.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=6</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>80863_1.jpg.jpg</t>
+          <t>18591_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
@@ -760,12 +760,12 @@
     <row r="7" ht="12.8" customHeight="1" s="4">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ Happy Rainbow Plush Toy</t>
+          <t>Squishmallows™ 12" Claire's Unicorn Plush Toy</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Happy Rainbow Plush Toy</t>
+          <t>Claire's Unicorn Plush Toy</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -790,12 +790,12 @@
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-happy-rainbow-plush-toy-264751.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=6</t>
+          <t>https://www.claires.com/us/squishmallows-12%22-claires-unicorn-plush-toy-254505.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=7</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>18591_1.jpg.jpg</t>
+          <t>53101_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
@@ -807,22 +807,22 @@
     <row r="8" ht="12.8" customHeight="1" s="4">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12" Claire's Unicorn Plush Toy</t>
+          <t>Squishmallows™ 8'' Hero Dog Plush Toy</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Claire's Unicorn Plush Toy</t>
+          <t xml:space="preserve"> Hero Dog Plush Toy</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>16.99</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>12"</t>
+          <t>8''</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-claires-unicorn-plush-toy-254505.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=7</t>
+          <t>https://www.claires.com/us/squishmallows-8-hero-dog-plush-toy-266479.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=8</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>53101_1.jpg.jpg</t>
+          <t>69142_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
@@ -854,22 +854,22 @@
     <row r="9" ht="12.8" customHeight="1" s="4">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 8'' Hero Dog Plush Toy</t>
+          <t>Squishmallows™ 12" Puppy Dog Plush Toy - Coral</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hero Dog Plush Toy</t>
+          <t xml:space="preserve">Puppy Dog Plush Toy </t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>16.99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>8''</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-8-hero-dog-plush-toy-266479.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=8</t>
+          <t>https://www.claires.com/us/squishmallows-12%22-puppy-dog-plush-toy---coral-138342.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=9</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>69142_1.jpg.jpg</t>
+          <t>45303_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
@@ -901,12 +901,12 @@
     <row r="10" ht="12.8" customHeight="1" s="4">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12" Puppy Dog Plush Toy - Coral</t>
+          <t>Squishmallows™ 12" Koala Plush Toy</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Puppy Dog Plush Toy </t>
+          <t>Koala Plush Toy</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-puppy-dog-plush-toy---coral-138342.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=9</t>
+          <t>https://www.claires.com/us/squishmallows-12%22-koala-plush-toy-149212.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=10</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>45303_1.jpg.jpg</t>
+          <t>69204_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
@@ -948,22 +948,22 @@
     <row r="11" ht="12.8" customHeight="1" s="4">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12" Koala Plush Toy</t>
+          <t>Squishmallows™ 5" Puppy Dog Plush Toy - Aqua</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Koala Plush Toy</t>
+          <t xml:space="preserve">Puppy Dog Plush Toy </t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>12"</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -978,12 +978,12 @@
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-koala-plush-toy-149212.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=10</t>
+          <t>https://www.claires.com/us/squishmallows-5%22-puppy-dog-plush-toy---aqua-265976.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=11</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>69204_1.jpg.jpg</t>
+          <t>55231_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
@@ -995,12 +995,12 @@
     <row r="12" ht="12.8" customHeight="1" s="4">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 5" Puppy Dog Plush Toy - Aqua</t>
+          <t>Squishmallows™ 5" Dalmatian Plush Toy</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Puppy Dog Plush Toy </t>
+          <t>Dalmatian Plush Toy</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-puppy-dog-plush-toy---aqua-265976.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=11</t>
+          <t>https://www.claires.com/us/squishmallows-5%22-dalmatian-plush-toy-264750.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=13</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>55231_1.jpg.jpg</t>
+          <t>18403_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
@@ -1042,12 +1042,12 @@
     <row r="13" ht="12.8" customHeight="1" s="4">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 5" Dalmatian Plush Toy</t>
+          <t>Squishmallows™ 5" Claire's Cat Plush Toy - Mint</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Dalmatian Plush Toy</t>
+          <t xml:space="preserve">Claire's Cat Plush Toy </t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1072,12 +1072,12 @@
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-dalmatian-plush-toy-264750.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=13</t>
+          <t>https://www.claires.com/us/squishmallows-5%22-claires-cat-plush-toy---mint-257438.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=14</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>18403_1.jpg.jpg</t>
+          <t>97438_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="14" ht="12.8" customHeight="1" s="4">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 5" Claire's Cat Plush Toy - Mint</t>
+          <t>Squishmallows™ 12" Claire's Cat Plush Toy - Mint</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-claires-cat-plush-toy---mint-257438.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=14</t>
+          <t>https://www.claires.com/us/squishmallows-12%22-claires-cat-plush-toy---mint-257439.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=15</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>97438_1.jpg.jpg</t>
+          <t>97444_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
@@ -1136,22 +1136,22 @@
     <row r="15" ht="12.8" customHeight="1" s="4">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12" Claire's Cat Plush Toy - Mint</t>
+          <t>Squishmallows™ 5" Koala Plush Toy</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claire's Cat Plush Toy </t>
+          <t>Koala Plush Toy</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>12"</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-claires-cat-plush-toy---mint-257439.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=15</t>
+          <t>https://www.claires.com/us/squishmallows-5%22-koala-plush-toy-266476.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=16</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>97444_1.jpg.jpg</t>
+          <t>69191_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
@@ -1183,22 +1183,22 @@
     <row r="16" ht="12.8" customHeight="1" s="4">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 5" Koala Plush Toy</t>
+          <t>Squishmallows™ 12" Dalmatian Plush Toy</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Koala Plush Toy</t>
+          <t>Dalmatian Plush Toy</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-koala-plush-toy-266476.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=16</t>
+          <t>https://www.claires.com/us/squishmallows-12%22-dalmatian-plush-toy-125971.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=17</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>69191_1.jpg.jpg</t>
+          <t>18420_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
@@ -1230,12 +1230,12 @@
     <row r="17" ht="12.8" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12" Dalmatian Plush Toy</t>
+          <t>Squishmallows™ 12" Puppy Dog Plush Toy - Aqua</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Dalmatian Plush Toy</t>
+          <t xml:space="preserve">Puppy Dog Plush Toy </t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-dalmatian-plush-toy-125971.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=17</t>
+          <t>https://www.claires.com/us/squishmallows-12%22-puppy-dog-plush-toy---aqua-265977.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=18</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>18420_1.jpg.jpg</t>
+          <t>55309_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
@@ -1277,22 +1277,22 @@
     <row r="18" ht="12.8" customHeight="1" s="4">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12" Puppy Dog Plush Toy - Aqua</t>
+          <t>Sanrio® Hello Kitty® And Friends Squishmallows™ Pineapple 8'' Plush Toy</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Puppy Dog Plush Toy </t>
+          <t>Pineapple 8'' Plush Toy</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>12"</t>
+          <t>8''</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-puppy-dog-plush-toy---aqua-265977.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=18</t>
+          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-squishmallows-pineapple-8-plush-toy-275278.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=19</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>55309_1.jpg.jpg</t>
+          <t>20494_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
@@ -1324,12 +1324,12 @@
     <row r="19" ht="12.8" customHeight="1" s="4">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Sanrio® Hello Kitty® And Friends Squishmallows™ Pineapple 8'' Plush Toy</t>
+          <t>Sanrio® Hello Kitty® And Friends Tuxedo Sam® Squishmallows™ 8'' Plush Toy</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Pineapple 8'' Plush Toy</t>
+          <t xml:space="preserve"> Plush Toy</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-squishmallows-pineapple-8-plush-toy-275278.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=19</t>
+          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-tuxedo-sam-squishmallows-8-plush-toy-168875.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=20</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>20494_1.jpg.jpg</t>
+          <t>20459_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="20" ht="12.8" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Sanrio® Hello Kitty® And Friends Tuxedo Sam® Squishmallows™ 8'' Plush Toy</t>
+          <t>Sanrio® Hello Kitty® And Friends Tuxedo Sam® Sundae Squishmallows™ 8'' Plush Toy</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-tuxedo-sam-squishmallows-8-plush-toy-168875.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=20</t>
+          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-tuxedo-sam-sundae-squishmallows-8-plush-toy-127028.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=21</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>20459_1.jpg.jpg</t>
+          <t>20476_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
@@ -1418,7 +1418,7 @@
     <row r="21" ht="12.8" customHeight="1" s="4">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Sanrio® Hello Kitty® And Friends Tuxedo Sam® Sundae Squishmallows™ 8'' Plush Toy</t>
+          <t>Sanrio® Hello Kitty® And Friends Squishmallows™ 8'' Plush Toy</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-tuxedo-sam-sundae-squishmallows-8-plush-toy-127028.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=21</t>
+          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-squishmallows-8-plush-toy-127000.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=23</t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>20476_1.jpg.jpg</t>
+          <t>20433_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr">
@@ -1465,22 +1465,22 @@
     <row r="22" ht="12.8" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Sanrio® Hello Kitty® And Friends Squishmallows™ 8'' Plush Toy</t>
+          <t>Squishmallows™ 12" Avocado Plush Toy</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plush Toy</t>
+          <t>Avocado Plush Toy</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>8''</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-squishmallows-8-plush-toy-127000.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=23</t>
+          <t>https://www.claires.com/us/squishmallows-12%22-avocado-plush-toy-126032.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=24</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>20433_1.jpg.jpg</t>
+          <t>18529_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr">
@@ -1512,22 +1512,22 @@
     <row r="23" ht="12.8" customHeight="1" s="4">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12" Avocado Plush Toy</t>
+          <t>Squishmallows™ 5" Claire's Unicorn Plush Toy</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Avocado Plush Toy</t>
+          <t>Claire's Unicorn Plush Toy</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>12"</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1542,12 +1542,12 @@
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-avocado-plush-toy-126032.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=24</t>
+          <t>https://www.claires.com/us/squishmallows-5%22-claires-unicorn-plush-toy-140176.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=25</t>
         </is>
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>18529_1.jpg.jpg</t>
+          <t>49834_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I23" s="3" t="inlineStr">
@@ -1559,22 +1559,22 @@
     <row r="24" ht="12.8" customHeight="1" s="4">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 5" Claire's Unicorn Plush Toy</t>
+          <t>Squishmallows™ 12" Fantasy Squad Plush Toy - Styles May Vary</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Claire's Unicorn Plush Toy</t>
+          <t xml:space="preserve">Fantasy Squad Plush Toy </t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-claires-unicorn-plush-toy-140176.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=25</t>
+          <t>https://www.claires.com/us/squishmallows-12%22-fantasy-squad-plush-toy---styles-may-vary-140293.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=10</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>49834_1.jpg.jpg</t>
+          <t>50092_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
@@ -1606,22 +1606,22 @@
     <row r="25" ht="12.8" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12" Fantasy Squad Plush Toy - Styles May Vary</t>
+          <t>Squishmallows™ 5" Cactus Plush Toy - Styles May Vary</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fantasy Squad Plush Toy </t>
+          <t xml:space="preserve">Cactus Plush Toy </t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>12"</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-fantasy-squad-plush-toy---styles-may-vary-140293.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=10</t>
+          <t>https://www.claires.com/us/squishmallows-5%22-cactus-plush-toy---styles-may-vary-268844.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=24</t>
         </is>
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t>50092_1.jpg.jpg</t>
+          <t>86003_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I25" s="3" t="inlineStr">
@@ -1653,22 +1653,22 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 5" Cactus Plush Toy - Styles May Vary</t>
+          <t>Squishmallows™ 8'' Astronaut Dog Plush Toy</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cactus Plush Toy </t>
+          <t xml:space="preserve"> Astronaut Dog Plush Toy</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>16.99</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>8''</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-cactus-plush-toy---styles-may-vary-268844.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=24</t>
+          <t>https://www.claires.com/us/squishmallows-8-astronaut-dog-plush-toy-268838.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=25</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>86003_1.jpg.jpg</t>
+          <t>86044_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
@@ -1700,22 +1700,22 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 8'' Astronaut Dog Plush Toy</t>
+          <t>Squishmallows™ 12''' Sealife Plush Toy - Styles May Vary</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Astronaut Dog Plush Toy</t>
+          <t xml:space="preserve">' Sealife Plush Toy </t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>16.99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>8''</t>
+          <t>12'''</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-8-astronaut-dog-plush-toy-268838.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=25</t>
+          <t>https://www.claires.com/us/squishmallows-12-sealife-plush-toy---styles-may-vary-271140.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=28</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>86044_1.jpg.jpg</t>
+          <t>54030_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr">
@@ -1747,22 +1747,22 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12'' Cactus Plush Toy</t>
+          <t>Squishmallows™ 3" Dream Keyring Clip - Styles May Vary</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cactus Plush Toy</t>
+          <t xml:space="preserve">Dream Keyring Clip </t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>12''</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1777,12 +1777,12 @@
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12-cactus-plush-toy-157225.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=27</t>
+          <t>https://www.claires.com/us/squishmallows-3%22-dream-keyring-clip---styles-may-vary-144911.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=13</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>86084_1.jpg.jpg</t>
+          <t>60191_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr">
@@ -1794,12 +1794,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12''' Sealife Plush Toy - Styles May Vary</t>
+          <t>Squishmallows™ 12" Cactus Plush Toy - Styles May Vary</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">' Sealife Plush Toy </t>
+          <t xml:space="preserve">Cactus Plush Toy </t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>12'''</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1824,12 +1824,12 @@
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12-sealife-plush-toy---styles-may-vary-271140.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=28</t>
+          <t>https://www.claires.com/us/squishmallows-12%22-cactus-plush-toy---styles-may-vary-157225.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=27</t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>54030_1.jpg.jpg</t>
+          <t>86084_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">

--- a/items_data/claires.xlsx
+++ b/items_data/claires.xlsx
@@ -1418,22 +1418,22 @@
     <row r="21" ht="12.8" customHeight="1" s="4">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Sanrio® Hello Kitty® And Friends Squishmallows™ 8'' Plush Toy</t>
+          <t>Squishmallows™ 12" Avocado Plush Toy</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plush Toy</t>
+          <t>Avocado Plush Toy</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>8''</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/sanrio-hello-kitty-and-friends-squishmallows-8-plush-toy-127000.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=23</t>
+          <t>https://www.claires.com/us/squishmallows-12%22-avocado-plush-toy-126032.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=24</t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>20433_1.jpg.jpg</t>
+          <t>18529_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr">
@@ -1465,22 +1465,22 @@
     <row r="22" ht="12.8" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12" Avocado Plush Toy</t>
+          <t>Squishmallows™ 5" Claire's Unicorn Plush Toy</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Avocado Plush Toy</t>
+          <t>Claire's Unicorn Plush Toy</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>12"</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-avocado-plush-toy-126032.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=24</t>
+          <t>https://www.claires.com/us/squishmallows-5%22-claires-unicorn-plush-toy-140176.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=25</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>18529_1.jpg.jpg</t>
+          <t>49834_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr">
@@ -1512,22 +1512,22 @@
     <row r="23" ht="12.8" customHeight="1" s="4">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 5" Claire's Unicorn Plush Toy</t>
+          <t>Squishmallows™ 12" Fantasy Squad Plush Toy - Styles May Vary</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Claire's Unicorn Plush Toy</t>
+          <t xml:space="preserve">Fantasy Squad Plush Toy </t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1542,12 +1542,12 @@
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-claires-unicorn-plush-toy-140176.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=25</t>
+          <t>https://www.claires.com/us/squishmallows-12%22-fantasy-squad-plush-toy---styles-may-vary-140293.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=10</t>
         </is>
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>49834_1.jpg.jpg</t>
+          <t>50092_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I23" s="3" t="inlineStr">
@@ -1559,22 +1559,22 @@
     <row r="24" ht="12.8" customHeight="1" s="4">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12" Fantasy Squad Plush Toy - Styles May Vary</t>
+          <t>Squishmallows™ 5" Cactus Plush Toy - Styles May Vary</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fantasy Squad Plush Toy </t>
+          <t xml:space="preserve">Cactus Plush Toy </t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>12"</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-fantasy-squad-plush-toy---styles-may-vary-140293.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=10</t>
+          <t>https://www.claires.com/us/squishmallows-5%22-cactus-plush-toy---styles-may-vary-268844.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=24</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>50092_1.jpg.jpg</t>
+          <t>86003_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
@@ -1606,22 +1606,22 @@
     <row r="25" ht="12.8" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 5" Cactus Plush Toy - Styles May Vary</t>
+          <t>Squishmallows™ 8'' Astronaut Dog Plush Toy</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cactus Plush Toy </t>
+          <t xml:space="preserve"> Astronaut Dog Plush Toy</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>16.99</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>8''</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-5%22-cactus-plush-toy---styles-may-vary-268844.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=24</t>
+          <t>https://www.claires.com/us/squishmallows-8-astronaut-dog-plush-toy-268838.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=25</t>
         </is>
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t>86003_1.jpg.jpg</t>
+          <t>86044_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I25" s="3" t="inlineStr">
@@ -1653,22 +1653,22 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 8'' Astronaut Dog Plush Toy</t>
+          <t>Squishmallows™ 12''' Sealife Plush Toy - Styles May Vary</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Astronaut Dog Plush Toy</t>
+          <t xml:space="preserve">' Sealife Plush Toy </t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>16.99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>8''</t>
+          <t>12'''</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-8-astronaut-dog-plush-toy-268838.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=25</t>
+          <t>https://www.claires.com/us/squishmallows-12-sealife-plush-toy---styles-may-vary-271140.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=28</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>86044_1.jpg.jpg</t>
+          <t>54030_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
@@ -1700,22 +1700,22 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12''' Sealife Plush Toy - Styles May Vary</t>
+          <t>Squishmallows™ 3" Dream Keyring Clip - Styles May Vary</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">' Sealife Plush Toy </t>
+          <t xml:space="preserve">Dream Keyring Clip </t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>12'''</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12-sealife-plush-toy---styles-may-vary-271140.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=28</t>
+          <t>https://www.claires.com/us/squishmallows-3%22-dream-keyring-clip---styles-may-vary-144911.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=13</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>54030_1.jpg.jpg</t>
+          <t>60191_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr">
@@ -1747,22 +1747,22 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 3" Dream Keyring Clip - Styles May Vary</t>
+          <t>Squishmallows™ 12" Cactus Plush Toy - Styles May Vary</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dream Keyring Clip </t>
+          <t xml:space="preserve">Cactus Plush Toy </t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>12"</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1777,12 +1777,12 @@
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-3%22-dream-keyring-clip---styles-may-vary-144911.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=13</t>
+          <t>https://www.claires.com/us/squishmallows-12%22-cactus-plush-toy---styles-may-vary-157225.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=27</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>60191_1.jpg.jpg</t>
+          <t>86084_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr">
@@ -1794,22 +1794,22 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Squishmallows™ 12" Cactus Plush Toy - Styles May Vary</t>
+          <t>Squishmallows™ 5'' Pineapple Plush Toy</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cactus Plush Toy </t>
+          <t xml:space="preserve"> Pineapple Plush Toy</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>12"</t>
+          <t>5''</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1824,12 +1824,12 @@
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>https://www.claires.com/us/squishmallows-12%22-cactus-plush-toy---styles-may-vary-157225.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=27</t>
+          <t>https://www.claires.com/us/squishmallows-5-pineapple-plush-toy-267088.html?cgid=2894#prefn1=brandName&amp;prefv1=Squishmallows&amp;start=19</t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>86084_1.jpg.jpg</t>
+          <t>90883_1.jpg.jpg</t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">
